--- a/results/07-2024/comparison-deflators-07-2024.xlsx
+++ b/results/07-2024/comparison-deflators-07-2024.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t xml:space="preserve">2026 Q2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026 Q3</t>
   </si>
   <si>
     <t xml:space="preserve">Consumption Deflator Growth</t>
@@ -575,13 +578,16 @@
       <c r="W1" t="s">
         <v>22</v>
       </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="n">
         <v>0.0153</v>
@@ -620,7 +626,7 @@
         <v>0.0084</v>
       </c>
       <c r="O2" t="n">
-        <v>0.006</v>
+        <v>0.0065</v>
       </c>
       <c r="P2" t="n">
         <v>0.0056</v>
@@ -644,15 +650,18 @@
         <v>0.0049</v>
       </c>
       <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>0.0048</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
         <v>25</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
       </c>
       <c r="C3" t="n">
         <v>268.6227</v>
@@ -691,7 +700,7 @@
         <v>310.9897</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>313.1603</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -715,15 +724,18 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="n">
         <v>0.0416</v>
@@ -765,7 +777,7 @@
         <v>-0.0177</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.0668</v>
+        <v>-0.0669</v>
       </c>
       <c r="Q4" t="n">
         <v>-0.029</v>
@@ -774,10 +786,10 @@
         <v>-0.0281</v>
       </c>
       <c r="S4" t="n">
-        <v>-0.0265</v>
+        <v>-0.0266</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.0258</v>
+        <v>-0.0259</v>
       </c>
       <c r="U4" t="n">
         <v>-0.0039</v>
@@ -788,13 +800,16 @@
       <c r="W4" t="n">
         <v>-0.0022</v>
       </c>
+      <c r="X4" t="n">
+        <v>-0.0028</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="n">
         <v>-0.3032</v>
@@ -833,39 +848,42 @@
         <v>-0.2589</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.6888</v>
+        <v>0.1284</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.3357</v>
+        <v>-0.3265</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.0309</v>
+        <v>-0.0159</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.2996</v>
+        <v>-0.2838</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.1719</v>
+        <v>-0.1558</v>
       </c>
       <c r="T5" t="n">
-        <v>-0.0121</v>
+        <v>0.0041</v>
       </c>
       <c r="U5" t="n">
-        <v>-0.194</v>
+        <v>-0.1806</v>
       </c>
       <c r="V5" t="n">
-        <v>-0.1227</v>
+        <v>-0.109</v>
       </c>
       <c r="W5" t="n">
-        <v>-31.8701</v>
+        <v>0.0247</v>
+      </c>
+      <c r="X5" t="n">
+        <v>-32.5481</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="n">
         <v>-0.016</v>
@@ -904,39 +922,42 @@
         <v>0.1555</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.016</v>
+        <v>-0.0168</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.0271</v>
+        <v>-0.027</v>
       </c>
       <c r="Q6" t="n">
         <v>-0.0217</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.0166</v>
+        <v>-0.0165</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0039</v>
+        <v>0.004</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.0044</v>
+        <v>-0.0043</v>
       </c>
       <c r="U6" t="n">
-        <v>-0.0142</v>
+        <v>-0.009</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.0292</v>
+        <v>-0.0188</v>
       </c>
       <c r="W6" t="n">
-        <v>-1.7932</v>
+        <v>-1.338</v>
+      </c>
+      <c r="X6" t="n">
+        <v>-0.4654</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="n">
         <v>-0.0117</v>
@@ -975,39 +996,42 @@
         <v>-0.1984</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.1261</v>
+        <v>-0.1517</v>
       </c>
       <c r="P7" t="n">
-        <v>0.0791</v>
+        <v>0.0759</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0212</v>
+        <v>0.0199</v>
       </c>
       <c r="R7" t="n">
-        <v>0.0459</v>
+        <v>0.0463</v>
       </c>
       <c r="S7" t="n">
-        <v>-0.0139</v>
+        <v>0.0129</v>
       </c>
       <c r="T7" t="n">
-        <v>-0.0273</v>
+        <v>-0.0203</v>
       </c>
       <c r="U7" t="n">
-        <v>-0.0132</v>
+        <v>-0.0063</v>
       </c>
       <c r="V7" t="n">
-        <v>0.0031</v>
+        <v>0.01</v>
       </c>
       <c r="W7" t="n">
-        <v>-5.1268</v>
+        <v>0.0512</v>
+      </c>
+      <c r="X7" t="n">
+        <v>-5.1115</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="n">
         <v>-0.4941</v>
@@ -1046,39 +1070,42 @@
         <v>0.2956</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1467</v>
+        <v>0.1945</v>
       </c>
       <c r="P8" t="n">
-        <v>0.2759</v>
+        <v>0.2936</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.2413</v>
+        <v>0.2059</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.093</v>
+        <v>-0.114</v>
       </c>
       <c r="S8" t="n">
-        <v>-0.1035</v>
+        <v>-0.1096</v>
       </c>
       <c r="T8" t="n">
-        <v>-0.0674</v>
+        <v>-0.0731</v>
       </c>
       <c r="U8" t="n">
-        <v>-0.0733</v>
+        <v>-0.0788</v>
       </c>
       <c r="V8" t="n">
-        <v>-0.0247</v>
+        <v>-0.0306</v>
       </c>
       <c r="W8" t="n">
-        <v>7.5395</v>
+        <v>-0.0497</v>
+      </c>
+      <c r="X8" t="n">
+        <v>7.5324</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="n">
         <v>-0.0388</v>
@@ -1126,7 +1153,7 @@
         <v>-0.0224</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.0152</v>
+        <v>-0.0153</v>
       </c>
       <c r="S9" t="n">
         <v>-0.0138</v>
@@ -1143,13 +1170,16 @@
       <c r="W9" t="n">
         <v>-0.0099</v>
       </c>
+      <c r="X9" t="n">
+        <v>-0.0067</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="n">
         <v>0.1201</v>
@@ -1214,13 +1244,16 @@
       <c r="W10" t="n">
         <v>-0.0064</v>
       </c>
+      <c r="X10" t="n">
+        <v>-0.0058</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="n">
         <v>0.0097</v>
@@ -1259,39 +1292,42 @@
         <v>0.0102</v>
       </c>
       <c r="O11" t="n">
+        <v>0.0048</v>
+      </c>
+      <c r="P11" t="n">
         <v>0.0063</v>
       </c>
-      <c r="P11" t="n">
-        <v>0.0068</v>
-      </c>
       <c r="Q11" t="n">
-        <v>0.0063</v>
+        <v>0.0058</v>
       </c>
       <c r="R11" t="n">
-        <v>0.006</v>
+        <v>0.0055</v>
       </c>
       <c r="S11" t="n">
-        <v>0.0059</v>
+        <v>0.0054</v>
       </c>
       <c r="T11" t="n">
-        <v>0.0058</v>
+        <v>0.0053</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0058</v>
+        <v>0.0053</v>
       </c>
       <c r="V11" t="n">
-        <v>0.0045</v>
+        <v>0.004</v>
       </c>
       <c r="W11" t="n">
-        <v>0.0047</v>
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.0049</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="n">
         <v>-0.0263</v>
@@ -1330,39 +1366,42 @@
         <v>-0.0485</v>
       </c>
       <c r="O12" t="n">
-        <v>0.0371</v>
+        <v>0.0882</v>
       </c>
       <c r="P12" t="n">
-        <v>0.0715</v>
+        <v>0.1214</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.0681</v>
+        <v>0.117</v>
       </c>
       <c r="R12" t="n">
-        <v>-0.0747</v>
+        <v>-0.0271</v>
       </c>
       <c r="S12" t="n">
-        <v>-0.073</v>
+        <v>-0.0755</v>
       </c>
       <c r="T12" t="n">
-        <v>-0.0725</v>
+        <v>-0.0749</v>
       </c>
       <c r="U12" t="n">
-        <v>-0.1269</v>
+        <v>-0.1293</v>
       </c>
       <c r="V12" t="n">
-        <v>-0.1177</v>
+        <v>-0.1201</v>
       </c>
       <c r="W12" t="n">
-        <v>-6.4648</v>
+        <v>-0.0884</v>
+      </c>
+      <c r="X12" t="n">
+        <v>-6.4514</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="n">
         <v>0.0635</v>
@@ -1404,13 +1443,13 @@
         <v>-0.0932</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.0548</v>
+        <v>-0.0549</v>
       </c>
       <c r="Q13" t="n">
         <v>-0.0298</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.0295</v>
+        <v>-0.0296</v>
       </c>
       <c r="S13" t="n">
         <v>-0.0233</v>
@@ -1425,15 +1464,18 @@
         <v>-0.0001</v>
       </c>
       <c r="W13" t="n">
-        <v>-0.0073</v>
+        <v>-0.0001</v>
+      </c>
+      <c r="X13" t="n">
+        <v>-0.0072</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="n">
         <v>0.3548</v>
@@ -1472,39 +1514,42 @@
         <v>-0.1047</v>
       </c>
       <c r="O14" t="n">
-        <v>-0.2926</v>
+        <v>-0.2934</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.263</v>
+        <v>-0.2648</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.1065</v>
+        <v>-0.108</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.0588</v>
+        <v>-0.0601</v>
       </c>
       <c r="S14" t="n">
-        <v>-0.0936</v>
+        <v>-0.0955</v>
       </c>
       <c r="T14" t="n">
-        <v>-0.0697</v>
+        <v>-0.0721</v>
       </c>
       <c r="U14" t="n">
-        <v>-0.0316</v>
+        <v>-0.0344</v>
       </c>
       <c r="V14" t="n">
-        <v>-0.0126</v>
+        <v>-0.0158</v>
       </c>
       <c r="W14" t="n">
-        <v>-0.0735</v>
+        <v>-0.0114</v>
+      </c>
+      <c r="X14" t="n">
+        <v>-0.0705</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="n">
         <v>0.0705</v>
@@ -1569,13 +1614,16 @@
       <c r="W15" t="n">
         <v>0</v>
       </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="n">
         <v>-2.4278</v>
@@ -1614,39 +1662,42 @@
         <v>0.0292</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.711</v>
+        <v>-0.0469</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.3727</v>
+        <v>-0.2889</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.1743</v>
+        <v>0.2229</v>
       </c>
       <c r="R16" t="n">
-        <v>-0.357</v>
+        <v>-0.287</v>
       </c>
       <c r="S16" t="n">
-        <v>-0.5872</v>
+        <v>-0.4873</v>
       </c>
       <c r="T16" t="n">
-        <v>-0.4066</v>
+        <v>-0.3859</v>
       </c>
       <c r="U16" t="n">
-        <v>-0.5123</v>
+        <v>-0.4892</v>
       </c>
       <c r="V16" t="n">
-        <v>-0.412</v>
+        <v>-0.3841</v>
       </c>
       <c r="W16" t="n">
-        <v>-73.1206</v>
+        <v>-1.2757</v>
+      </c>
+      <c r="X16" t="n">
+        <v>-72.1976</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="n">
         <v>23292.4</v>
@@ -1685,39 +1736,42 @@
         <v>28269.2</v>
       </c>
       <c r="O17" t="n">
-        <v>28642.9977</v>
+        <v>28629.2</v>
       </c>
       <c r="P17" t="n">
-        <v>28953.2298</v>
+        <v>28939.2827</v>
       </c>
       <c r="Q17" t="n">
-        <v>29240.6742</v>
+        <v>29226.5886</v>
       </c>
       <c r="R17" t="n">
-        <v>29540.6119</v>
+        <v>29526.3818</v>
       </c>
       <c r="S17" t="n">
-        <v>29847.8456</v>
+        <v>29833.4675</v>
       </c>
       <c r="T17" t="n">
-        <v>30149.0826</v>
+        <v>30134.5594</v>
       </c>
       <c r="U17" t="n">
-        <v>30434.9279</v>
+        <v>30420.267</v>
       </c>
       <c r="V17" t="n">
-        <v>30700.9839</v>
+        <v>30686.1948</v>
       </c>
       <c r="W17" t="n">
-        <v>30970.8378</v>
+        <v>30955.9188</v>
+      </c>
+      <c r="X17" t="n">
+        <v>31236.7314</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="n">
         <v>0.4797</v>
@@ -1756,39 +1810,42 @@
         <v>-0.1102</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.2253</v>
+        <v>0.0129</v>
       </c>
       <c r="P18" t="n">
-        <v>-0.0158</v>
+        <v>-0.0126</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.0114</v>
+        <v>0.0146</v>
       </c>
       <c r="R18" t="n">
-        <v>-0.311</v>
+        <v>-0.3081</v>
       </c>
       <c r="S18" t="n">
-        <v>-0.1953</v>
+        <v>-0.1924</v>
       </c>
       <c r="T18" t="n">
-        <v>-0.0404</v>
+        <v>-0.0375</v>
       </c>
       <c r="U18" t="n">
-        <v>-0.0913</v>
+        <v>-0.0885</v>
       </c>
       <c r="V18" t="n">
-        <v>-0.0371</v>
+        <v>-0.0343</v>
       </c>
       <c r="W18" t="n">
-        <v>-6.3919</v>
+        <v>-0.0333</v>
+      </c>
+      <c r="X18" t="n">
+        <v>-6.5514</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="n">
         <v>0.0044</v>
@@ -1853,13 +1910,16 @@
       <c r="W19" t="n">
         <v>0.0053</v>
       </c>
+      <c r="X19" t="n">
+        <v>0.0053</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="n">
         <v>-1.0203</v>
@@ -1901,16 +1961,16 @@
         <v>-0.1049</v>
       </c>
       <c r="P20" t="n">
-        <v>-0.1017</v>
+        <v>-0.1018</v>
       </c>
       <c r="Q20" t="n">
         <v>-0.0998</v>
       </c>
       <c r="R20" t="n">
-        <v>-0.0969</v>
+        <v>-0.097</v>
       </c>
       <c r="S20" t="n">
-        <v>-0.0941</v>
+        <v>-0.0942</v>
       </c>
       <c r="T20" t="n">
         <v>-0.001</v>
@@ -1924,13 +1984,16 @@
       <c r="W20" t="n">
         <v>0</v>
       </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" t="n">
         <v>-0.2618</v>
@@ -1995,13 +2058,16 @@
       <c r="W21" t="n">
         <v>0</v>
       </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="n">
         <v>-0.8374</v>
@@ -2040,39 +2106,42 @@
         <v>0.2164</v>
       </c>
       <c r="O22" t="n">
-        <v>0.2111</v>
+        <v>0.0455</v>
       </c>
       <c r="P22" t="n">
-        <v>-0.0711</v>
+        <v>-0.0526</v>
       </c>
       <c r="Q22" t="n">
-        <v>-0.0965</v>
+        <v>-0.0781</v>
       </c>
       <c r="R22" t="n">
-        <v>0.1812</v>
+        <v>0.1999</v>
       </c>
       <c r="S22" t="n">
-        <v>0.067</v>
+        <v>0.0857</v>
       </c>
       <c r="T22" t="n">
-        <v>-0.1014</v>
+        <v>-0.0827</v>
       </c>
       <c r="U22" t="n">
-        <v>-0.0518</v>
+        <v>-0.0331</v>
       </c>
       <c r="V22" t="n">
-        <v>-0.0934</v>
+        <v>-0.0747</v>
       </c>
       <c r="W22" t="n">
-        <v>-37.6317</v>
+        <v>0.1643</v>
+      </c>
+      <c r="X22" t="n">
+        <v>-37.3878</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" t="n">
         <v>-0.0154</v>
@@ -2111,7 +2180,7 @@
         <v>-0.0261</v>
       </c>
       <c r="O23" t="n">
-        <v>-0.0233</v>
+        <v>-0.0232</v>
       </c>
       <c r="P23" t="n">
         <v>-0.0165</v>
@@ -2123,7 +2192,7 @@
         <v>0.0145</v>
       </c>
       <c r="S23" t="n">
-        <v>-0.0058</v>
+        <v>-0.0057</v>
       </c>
       <c r="T23" t="n">
         <v>-0.0052</v>
@@ -2132,18 +2201,21 @@
         <v>0.001</v>
       </c>
       <c r="V23" t="n">
-        <v>0.0063</v>
+        <v>0.0064</v>
       </c>
       <c r="W23" t="n">
-        <v>0.0751</v>
+        <v>-0.0035</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0.0733</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" t="n">
         <v>0.2365</v>
@@ -2182,39 +2254,42 @@
         <v>0.1637</v>
       </c>
       <c r="O24" t="n">
-        <v>0.091</v>
+        <v>0.1122</v>
       </c>
       <c r="P24" t="n">
-        <v>0.0389</v>
+        <v>0.0612</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.1597</v>
+        <v>0.1825</v>
       </c>
       <c r="R24" t="n">
-        <v>0.0016</v>
+        <v>0.0247</v>
       </c>
       <c r="S24" t="n">
-        <v>-0.0241</v>
+        <v>-0.0208</v>
       </c>
       <c r="T24" t="n">
-        <v>-0.0263</v>
+        <v>-0.0239</v>
       </c>
       <c r="U24" t="n">
-        <v>-0.0242</v>
+        <v>-0.0217</v>
       </c>
       <c r="V24" t="n">
-        <v>-0.0216</v>
+        <v>-0.0191</v>
       </c>
       <c r="W24" t="n">
-        <v>-0.9721</v>
+        <v>-0.0118</v>
+      </c>
+      <c r="X24" t="n">
+        <v>-0.9884</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C25" t="n">
         <v>-0.1223</v>
@@ -2253,39 +2328,42 @@
         <v>0.2064</v>
       </c>
       <c r="O25" t="n">
-        <v>0.2058</v>
+        <v>0.1856</v>
       </c>
       <c r="P25" t="n">
-        <v>0.1218</v>
+        <v>0.0928</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.0847</v>
+        <v>0.0661</v>
       </c>
       <c r="R25" t="n">
-        <v>0.055</v>
+        <v>0.0412</v>
       </c>
       <c r="S25" t="n">
-        <v>-0.015</v>
+        <v>-0.0286</v>
       </c>
       <c r="T25" t="n">
-        <v>0.0165</v>
+        <v>0.0032</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0298</v>
+        <v>0.0167</v>
       </c>
       <c r="V25" t="n">
-        <v>0.0136</v>
+        <v>0.0008</v>
       </c>
       <c r="W25" t="n">
-        <v>3.9351</v>
+        <v>-0.0103</v>
+      </c>
+      <c r="X25" t="n">
+        <v>3.9556</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C26" t="n">
         <v>0.0185</v>
@@ -2324,39 +2402,42 @@
         <v>0.0094</v>
       </c>
       <c r="O26" t="n">
-        <v>0.0081</v>
+        <v>0.0044</v>
       </c>
       <c r="P26" t="n">
-        <v>0.0061</v>
+        <v>0.0056</v>
       </c>
       <c r="Q26" t="n">
+        <v>0.0053</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.0059</v>
+      </c>
+      <c r="S26" t="n">
         <v>0.0058</v>
       </c>
-      <c r="R26" t="n">
-        <v>0.0064</v>
-      </c>
-      <c r="S26" t="n">
+      <c r="T26" t="n">
+        <v>0.0057</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.0057</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.0057</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
         <v>0.0063</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0.0062</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0.0062</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0.0062</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0.0062</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C27" t="n">
         <v>162.3</v>
@@ -2395,7 +2476,7 @@
         <v>177.9</v>
       </c>
       <c r="O27" t="n">
-        <v>199.5248</v>
+        <v>180.3</v>
       </c>
       <c r="P27" t="n">
         <v>202.8043</v>
@@ -2419,15 +2500,18 @@
         <v>223.6447</v>
       </c>
       <c r="W27" t="n">
+        <v>227.3207</v>
+      </c>
+      <c r="X27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C28" t="n">
         <v>0.0067</v>
@@ -2466,10 +2550,10 @@
         <v>-0.0006</v>
       </c>
       <c r="O28" t="n">
-        <v>-0.0026</v>
+        <v>-0.0021</v>
       </c>
       <c r="P28" t="n">
-        <v>-0.0005</v>
+        <v>-0.0006</v>
       </c>
       <c r="Q28" t="n">
         <v>-0.0005</v>
@@ -2478,10 +2562,10 @@
         <v>-0.0007</v>
       </c>
       <c r="S28" t="n">
-        <v>-0.0013</v>
+        <v>-0.0014</v>
       </c>
       <c r="T28" t="n">
-        <v>-0.0003</v>
+        <v>-0.0004</v>
       </c>
       <c r="U28" t="n">
         <v>-0.0003</v>
@@ -2492,13 +2576,16 @@
       <c r="W28" t="n">
         <v>-0.0003</v>
       </c>
+      <c r="X28" t="n">
+        <v>-0.0003</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C29" t="n">
         <v>-0.156</v>
@@ -2537,39 +2624,42 @@
         <v>-0.0029</v>
       </c>
       <c r="O29" t="n">
-        <v>-0.0012</v>
+        <v>-0.0004</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="Q29" t="n">
-        <v>-0.0021</v>
+        <v>-0.0022</v>
       </c>
       <c r="R29" t="n">
+        <v>-0.0031</v>
+      </c>
+      <c r="S29" t="n">
+        <v>-0.0031</v>
+      </c>
+      <c r="T29" t="n">
+        <v>-0.0023</v>
+      </c>
+      <c r="U29" t="n">
+        <v>-0.0031</v>
+      </c>
+      <c r="V29" t="n">
         <v>-0.003</v>
       </c>
-      <c r="S29" t="n">
-        <v>-0.0028</v>
-      </c>
-      <c r="T29" t="n">
-        <v>-0.0022</v>
-      </c>
-      <c r="U29" t="n">
-        <v>-0.003</v>
-      </c>
-      <c r="V29" t="n">
-        <v>-0.0029</v>
-      </c>
       <c r="W29" t="n">
-        <v>-0.0614</v>
+        <v>-0.0026</v>
+      </c>
+      <c r="X29" t="n">
+        <v>-0.0606</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2608,7 +2698,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -2632,15 +2722,18 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
+        <v>-0.0048</v>
+      </c>
+      <c r="X30" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2679,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>313.1603</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -2703,15 +2796,18 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -2774,15 +2870,18 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -2821,39 +2920,42 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>0.8171</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>0.0091</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>0.0159</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>0.0161</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>0.0162</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>0.0134</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>0.0138</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>31.8947</v>
+      </c>
+      <c r="X33" t="n">
+        <v>-32.5481</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B34" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -2892,39 +2994,42 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>-0.0008</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>0.0053</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>0.0103</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>0.4552</v>
+      </c>
+      <c r="X34" t="n">
+        <v>-0.6697</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -2963,39 +3068,42 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>-0.0257</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>-0.0032</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>-0.0014</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>0.0268</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>0.007</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>0.007</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>0.0069</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>5.178</v>
+      </c>
+      <c r="X35" t="n">
+        <v>-0.0356</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B36" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3034,39 +3142,42 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>0.0478</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>0.0177</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>-0.0354</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>-0.021</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>-0.0061</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>-0.0057</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>-0.0055</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>-0.0059</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>-7.5892</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0.0442</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3129,15 +3240,18 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3200,15 +3314,18 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3247,39 +3364,42 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>-0.0015</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>-0.0005</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>-0.0005</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>-0.0005</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>-0.0005</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>-0.0005</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>-0.0005</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>-0.0005</v>
       </c>
       <c r="W39" t="n">
+        <v>-0.0047</v>
+      </c>
+      <c r="X39" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3318,39 +3438,42 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>0.0511</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>0.0499</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>0.0489</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>0.0476</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>-0.0024</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>-0.0024</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>-0.0024</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>-0.0023</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>6.3764</v>
+      </c>
+      <c r="X40" t="n">
+        <v>-0.0873</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3413,15 +3536,18 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>0.0071</v>
+      </c>
+      <c r="X41" t="n">
+        <v>-0.0011</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B42" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3460,39 +3586,42 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>-0.0008</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>-0.0018</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>-0.0015</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>-0.0014</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>-0.0019</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>-0.0024</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>-0.0028</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>-0.0033</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>0.0622</v>
+      </c>
+      <c r="X42" t="n">
+        <v>-0.0076</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B43" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3555,15 +3684,18 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B44" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3602,39 +3734,42 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>0.664</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>0.0838</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>0.0486</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>0.07</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>0.0999</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>0.0207</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>0.0231</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>0.0279</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>71.845</v>
+      </c>
+      <c r="X44" t="n">
+        <v>-70.6836</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B45" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -3673,39 +3808,42 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>-13.7977</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>-13.9471</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>-14.0856</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>-14.2301</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>-14.3781</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>-14.5232</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>-14.6609</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>-14.789</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>-14.919</v>
+      </c>
+      <c r="X45" t="n">
+        <v>-15.0544</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B46" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -3744,39 +3882,42 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>0.2382</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>0.0032</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>0.0033</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>0.0029</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>0.0029</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>0.0029</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>0.0029</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>6.3586</v>
+      </c>
+      <c r="X46" t="n">
+        <v>-6.5514</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B47" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -3839,15 +3980,18 @@
         <v>0</v>
       </c>
       <c r="W47" t="n">
+        <v>0</v>
+      </c>
+      <c r="X47" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B48" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -3910,15 +4054,18 @@
         <v>0</v>
       </c>
       <c r="W48" t="n">
+        <v>0</v>
+      </c>
+      <c r="X48" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B49" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -3981,15 +4128,18 @@
         <v>0</v>
       </c>
       <c r="W49" t="n">
+        <v>0</v>
+      </c>
+      <c r="X49" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -4028,39 +4178,42 @@
         <v>0</v>
       </c>
       <c r="O50" t="n">
-        <v>0</v>
+        <v>-0.1655</v>
       </c>
       <c r="P50" t="n">
-        <v>0</v>
+        <v>0.0185</v>
       </c>
       <c r="Q50" t="n">
-        <v>0</v>
+        <v>0.0184</v>
       </c>
       <c r="R50" t="n">
-        <v>0</v>
+        <v>0.0187</v>
       </c>
       <c r="S50" t="n">
-        <v>0</v>
+        <v>0.0187</v>
       </c>
       <c r="T50" t="n">
-        <v>0</v>
+        <v>0.0187</v>
       </c>
       <c r="U50" t="n">
-        <v>0</v>
+        <v>0.0187</v>
       </c>
       <c r="V50" t="n">
-        <v>0</v>
+        <v>0.0187</v>
       </c>
       <c r="W50" t="n">
-        <v>0</v>
+        <v>37.796</v>
+      </c>
+      <c r="X50" t="n">
+        <v>-37.3878</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B51" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -4123,15 +4276,18 @@
         <v>0</v>
       </c>
       <c r="W51" t="n">
-        <v>0</v>
+        <v>-0.0786</v>
+      </c>
+      <c r="X51" t="n">
+        <v>0.0005</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B52" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -4170,39 +4326,42 @@
         <v>0</v>
       </c>
       <c r="O52" t="n">
-        <v>0</v>
+        <v>0.0212</v>
       </c>
       <c r="P52" t="n">
-        <v>0</v>
+        <v>0.0224</v>
       </c>
       <c r="Q52" t="n">
-        <v>0</v>
+        <v>0.0229</v>
       </c>
       <c r="R52" t="n">
-        <v>0</v>
+        <v>0.0232</v>
       </c>
       <c r="S52" t="n">
-        <v>0</v>
+        <v>0.0033</v>
       </c>
       <c r="T52" t="n">
-        <v>0</v>
+        <v>0.0025</v>
       </c>
       <c r="U52" t="n">
-        <v>0</v>
+        <v>0.0025</v>
       </c>
       <c r="V52" t="n">
-        <v>0</v>
+        <v>0.0025</v>
       </c>
       <c r="W52" t="n">
-        <v>0</v>
+        <v>0.9603</v>
+      </c>
+      <c r="X52" t="n">
+        <v>-0.031</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B53" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -4241,39 +4400,42 @@
         <v>0</v>
       </c>
       <c r="O53" t="n">
-        <v>0</v>
+        <v>-0.0203</v>
       </c>
       <c r="P53" t="n">
-        <v>0</v>
+        <v>-0.029</v>
       </c>
       <c r="Q53" t="n">
-        <v>0</v>
+        <v>-0.0186</v>
       </c>
       <c r="R53" t="n">
-        <v>0</v>
+        <v>-0.0138</v>
       </c>
       <c r="S53" t="n">
-        <v>0</v>
+        <v>-0.0136</v>
       </c>
       <c r="T53" t="n">
-        <v>0</v>
+        <v>-0.0133</v>
       </c>
       <c r="U53" t="n">
-        <v>0</v>
+        <v>-0.0131</v>
       </c>
       <c r="V53" t="n">
-        <v>0</v>
+        <v>-0.0129</v>
       </c>
       <c r="W53" t="n">
-        <v>0</v>
+        <v>-3.9454</v>
+      </c>
+      <c r="X53" t="n">
+        <v>0.0529</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B54" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -4312,39 +4474,42 @@
         <v>0</v>
       </c>
       <c r="O54" t="n">
-        <v>0</v>
+        <v>-0.0037</v>
       </c>
       <c r="P54" t="n">
-        <v>0</v>
+        <v>-0.0005</v>
       </c>
       <c r="Q54" t="n">
-        <v>0</v>
+        <v>-0.0005</v>
       </c>
       <c r="R54" t="n">
-        <v>0</v>
+        <v>-0.0005</v>
       </c>
       <c r="S54" t="n">
-        <v>0</v>
+        <v>-0.0005</v>
       </c>
       <c r="T54" t="n">
-        <v>0</v>
+        <v>-0.0005</v>
       </c>
       <c r="U54" t="n">
-        <v>0</v>
+        <v>-0.0005</v>
       </c>
       <c r="V54" t="n">
-        <v>0</v>
+        <v>-0.0005</v>
       </c>
       <c r="W54" t="n">
+        <v>-0.0062</v>
+      </c>
+      <c r="X54" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B55" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -4383,7 +4548,7 @@
         <v>0</v>
       </c>
       <c r="O55" t="n">
-        <v>0</v>
+        <v>-19.2248</v>
       </c>
       <c r="P55" t="n">
         <v>0</v>
@@ -4407,15 +4572,18 @@
         <v>0</v>
       </c>
       <c r="W55" t="n">
+        <v>227.3207</v>
+      </c>
+      <c r="X55" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B56" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
@@ -4454,10 +4622,10 @@
         <v>0</v>
       </c>
       <c r="O56" t="n">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="P56" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="Q56" t="n">
         <v>0</v>
@@ -4478,15 +4646,18 @@
         <v>0</v>
       </c>
       <c r="W56" t="n">
+        <v>-0.0001</v>
+      </c>
+      <c r="X56" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B57" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
@@ -4525,22 +4696,22 @@
         <v>0</v>
       </c>
       <c r="O57" t="n">
-        <v>0</v>
+        <v>0.0008</v>
       </c>
       <c r="P57" t="n">
-        <v>0</v>
+        <v>-0.0002</v>
       </c>
       <c r="Q57" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="R57" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="S57" t="n">
-        <v>0</v>
+        <v>-0.0003</v>
       </c>
       <c r="T57" t="n">
-        <v>0</v>
+        <v>-0.0002</v>
       </c>
       <c r="U57" t="n">
         <v>0</v>
@@ -4549,15 +4720,18 @@
         <v>0</v>
       </c>
       <c r="W57" t="n">
-        <v>0</v>
+        <v>0.0588</v>
+      </c>
+      <c r="X57" t="n">
+        <v>-0.0091</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C58" t="n">
         <v>0.0153</v>
@@ -4622,13 +4796,16 @@
       <c r="W58" t="n">
         <v>0.0048</v>
       </c>
+      <c r="X58" t="n">
+        <v>0.0048</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C59" t="n">
         <v>268.6227</v>
@@ -4693,13 +4870,16 @@
       <c r="W59" t="n">
         <v>0</v>
       </c>
+      <c r="X59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B60" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C60" t="n">
         <v>0.0416</v>
@@ -4764,13 +4944,16 @@
       <c r="W60" t="n">
         <v>-0.0022</v>
       </c>
+      <c r="X60" t="n">
+        <v>-0.0028</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C61" t="n">
         <v>-0.3032</v>
@@ -4835,13 +5018,16 @@
       <c r="W61" t="n">
         <v>-31.8701</v>
       </c>
+      <c r="X61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B62" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C62" t="n">
         <v>-0.016</v>
@@ -4906,13 +5092,16 @@
       <c r="W62" t="n">
         <v>-1.7932</v>
       </c>
+      <c r="X62" t="n">
+        <v>0.2044</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B63" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C63" t="n">
         <v>-0.0117</v>
@@ -4977,13 +5166,16 @@
       <c r="W63" t="n">
         <v>-5.1268</v>
       </c>
+      <c r="X63" t="n">
+        <v>-5.0759</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B64" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C64" t="n">
         <v>-0.4941</v>
@@ -5048,13 +5240,16 @@
       <c r="W64" t="n">
         <v>7.5395</v>
       </c>
+      <c r="X64" t="n">
+        <v>7.4882</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B65" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C65" t="n">
         <v>-0.0388</v>
@@ -5119,13 +5314,16 @@
       <c r="W65" t="n">
         <v>-0.0099</v>
       </c>
+      <c r="X65" t="n">
+        <v>-0.0067</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B66" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C66" t="n">
         <v>0.1201</v>
@@ -5190,13 +5388,16 @@
       <c r="W66" t="n">
         <v>-0.0064</v>
       </c>
+      <c r="X66" t="n">
+        <v>-0.0058</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B67" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C67" t="n">
         <v>0.0097</v>
@@ -5261,13 +5462,16 @@
       <c r="W67" t="n">
         <v>0.0047</v>
       </c>
+      <c r="X67" t="n">
+        <v>0.0049</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B68" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C68" t="n">
         <v>-0.0263</v>
@@ -5332,13 +5536,16 @@
       <c r="W68" t="n">
         <v>-6.4648</v>
       </c>
+      <c r="X68" t="n">
+        <v>-6.3642</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B69" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C69" t="n">
         <v>0.0635</v>
@@ -5403,13 +5610,16 @@
       <c r="W69" t="n">
         <v>-0.0073</v>
       </c>
+      <c r="X69" t="n">
+        <v>-0.0061</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B70" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C70" t="n">
         <v>0.3548</v>
@@ -5474,13 +5684,16 @@
       <c r="W70" t="n">
         <v>-0.0735</v>
       </c>
+      <c r="X70" t="n">
+        <v>-0.0629</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B71" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C71" t="n">
         <v>0.0705</v>
@@ -5545,13 +5758,16 @@
       <c r="W71" t="n">
         <v>0</v>
       </c>
+      <c r="X71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B72" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C72" t="n">
         <v>-2.4278</v>
@@ -5616,13 +5832,16 @@
       <c r="W72" t="n">
         <v>-73.1206</v>
       </c>
+      <c r="X72" t="n">
+        <v>-1.514</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B73" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C73" t="n">
         <v>23292.4</v>
@@ -5687,13 +5906,16 @@
       <c r="W73" t="n">
         <v>30970.8378</v>
       </c>
+      <c r="X73" t="n">
+        <v>31251.7857</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B74" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C74" t="n">
         <v>0.4797</v>
@@ -5758,13 +5980,16 @@
       <c r="W74" t="n">
         <v>-6.3919</v>
       </c>
+      <c r="X74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B75" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C75" t="n">
         <v>0.0044</v>
@@ -5829,13 +6054,16 @@
       <c r="W75" t="n">
         <v>0.0053</v>
       </c>
+      <c r="X75" t="n">
+        <v>0.0053</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B76" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C76" t="n">
         <v>-1.0203</v>
@@ -5900,13 +6128,16 @@
       <c r="W76" t="n">
         <v>0</v>
       </c>
+      <c r="X76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B77" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C77" t="n">
         <v>-0.2618</v>
@@ -5971,13 +6202,16 @@
       <c r="W77" t="n">
         <v>0</v>
       </c>
+      <c r="X77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B78" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C78" t="n">
         <v>-0.8374</v>
@@ -6042,13 +6276,16 @@
       <c r="W78" t="n">
         <v>-37.6317</v>
       </c>
+      <c r="X78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B79" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C79" t="n">
         <v>-0.0154</v>
@@ -6113,13 +6350,16 @@
       <c r="W79" t="n">
         <v>0.0751</v>
       </c>
+      <c r="X79" t="n">
+        <v>0.0728</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B80" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C80" t="n">
         <v>0.2365</v>
@@ -6184,13 +6424,16 @@
       <c r="W80" t="n">
         <v>-0.9721</v>
       </c>
+      <c r="X80" t="n">
+        <v>-0.9573</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B81" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C81" t="n">
         <v>-0.1223</v>
@@ -6255,13 +6498,16 @@
       <c r="W81" t="n">
         <v>3.9351</v>
       </c>
+      <c r="X81" t="n">
+        <v>3.9027</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B82" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C82" t="n">
         <v>0.0185</v>
@@ -6326,13 +6572,16 @@
       <c r="W82" t="n">
         <v>0.0062</v>
       </c>
+      <c r="X82" t="n">
+        <v>0.0063</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B83" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C83" t="n">
         <v>162.3</v>
@@ -6397,13 +6646,16 @@
       <c r="W83" t="n">
         <v>0</v>
       </c>
+      <c r="X83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B84" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C84" t="n">
         <v>0.0067</v>
@@ -6468,13 +6720,16 @@
       <c r="W84" t="n">
         <v>-0.0003</v>
       </c>
+      <c r="X84" t="n">
+        <v>-0.0003</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B85" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C85" t="n">
         <v>-0.156</v>
@@ -6538,6 +6793,9 @@
       </c>
       <c r="W85" t="n">
         <v>-0.0614</v>
+      </c>
+      <c r="X85" t="n">
+        <v>-0.0515</v>
       </c>
     </row>
   </sheetData>
